--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anmol.dhama\Desktop\Api-Automation\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B64D1-E9D9-484E-832D-6DCE4E14813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{374CB313-C2EC-4493-8920-C30F95F691AF}"/>
+    <workbookView windowWidth="18820" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="Xpath" sheetId="2" r:id="rId2"/>
+    <sheet name="BulkActions" sheetId="3" r:id="rId2"/>
+    <sheet name="Locators" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -48,76 +40,152 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>Test_Login_Valid_Details</t>
+  </si>
+  <si>
+    <t>Username_IN</t>
   </si>
   <si>
     <t>anmoldhama98@gmail.com</t>
   </si>
   <si>
+    <t>Password_IN</t>
+  </si>
+  <si>
     <t>Translam@2</t>
   </si>
   <si>
-    <t>Test_Login_Valid_Details</t>
-  </si>
-  <si>
     <t>Test_Login_Invalid_Details</t>
   </si>
   <si>
     <t>Translam@</t>
   </si>
   <si>
-    <t>Login_Xpath</t>
-  </si>
-  <si>
-    <t>email_field</t>
-  </si>
-  <si>
-    <t>password_field</t>
-  </si>
-  <si>
-    <t>"//input[@type='password']"</t>
-  </si>
-  <si>
-    <t>"email"</t>
-  </si>
-  <si>
-    <t>Locator Key</t>
-  </si>
-  <si>
-    <t>Locator Value</t>
-  </si>
-  <si>
-    <t>usernameLocator</t>
-  </si>
-  <si>
-    <t>passwordLocator</t>
-  </si>
-  <si>
-    <t>loginButtonLocator</t>
+    <t>testCaseOne</t>
+  </si>
+  <si>
+    <t>import_info</t>
+  </si>
+  <si>
+    <t>Order Creation</t>
+  </si>
+  <si>
+    <t>import_counts</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>errors</t>
+  </si>
+  <si>
+    <t>Locator_Field</t>
+  </si>
+  <si>
+    <t>Locator_Value</t>
+  </si>
+  <si>
+    <t>LoginPage_Username_IN</t>
   </si>
   <si>
     <t>#email</t>
   </si>
   <si>
+    <t>LoginPage_Password_IN</t>
+  </si>
+  <si>
     <t>//input[@type='password']</t>
   </si>
   <si>
+    <t>LoginPage_Signin_BT</t>
+  </si>
+  <si>
     <t>//button[contains(text(),'Sign in')]</t>
+  </si>
+  <si>
+    <t>Bulkimport_Import_Info</t>
+  </si>
+  <si>
+    <t>//tbody/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t>Bulkimport_Import_Count</t>
+  </si>
+  <si>
+    <t>//tbody/tr[1]/td[3]</t>
+  </si>
+  <si>
+    <t>Bulkimport_Sucess</t>
+  </si>
+  <si>
+    <t>//tbody/tr[1]/td[4]/div/span[2]</t>
+  </si>
+  <si>
+    <t>Bulkimport_Errors</t>
+  </si>
+  <si>
+    <t>//tbody/tr[1]/td[5]/div/span[2]</t>
+  </si>
+  <si>
+    <t>Main_Menu_LT</t>
+  </si>
+  <si>
+    <t>//html/body/div[3]/div/aside</t>
+  </si>
+  <si>
+    <t>Main_Menu_Tool_Item</t>
+  </si>
+  <si>
+    <t>//li[a/div[contains(text(), 'Tools')]]</t>
+  </si>
+  <si>
+    <t>Main_Menu_Tool_Item_BulkAction_Item</t>
+  </si>
+  <si>
+    <t>//a[div[@class='text-truncate menu-length' and text()='Bulk Import']]</t>
+  </si>
+  <si>
+    <t>Bulkimport_Upload_File_BT</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Upload File')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,25 +193,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,30 +542,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -223,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -256,26 +932,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -308,23 +967,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,33 +1128,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172E000-028E-41D8-9486-C482BB97FE75}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="8.90909090909091" customWidth="1"/>
+    <col min="3" max="3" width="23.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="16.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="27.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,164 +1159,271 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6C8FF2E8-175C-4EB9-ADEE-66AFEABBF0B5}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{EB7040C8-315E-4B47-9A04-CDB65E89C903}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{8AD16CEC-E505-4C83-B2B8-1F871E0786C1}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{E9ED8DA9-E601-4C58-ACE0-E24AF0838111}"/>
+    <hyperlink ref="C2" r:id="rId1" display="anmoldhama98@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId1" display="anmoldhama98@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId2" display="Translam@"/>
+    <hyperlink ref="C3" r:id="rId3" display="Translam@2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83046408-033F-4104-9168-79438E5CE02C}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="22.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="32.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="14.5" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="35.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="56.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="14.5" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="14.5" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="14.5" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="14.5" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -103,6 +103,12 @@
     <t>//button[contains(text(),'Sign in')]</t>
   </si>
   <si>
+    <t>Bulkimport_FileName</t>
+  </si>
+  <si>
+    <t>//tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
     <t>Bulkimport_Import_Info</t>
   </si>
   <si>
@@ -149,6 +155,57 @@
   </si>
   <si>
     <t>//button[contains(text(),'Upload File')]</t>
+  </si>
+  <si>
+    <t>Main_Menu_Items</t>
+  </si>
+  <si>
+    <t>Main_Menu_Orders_Dropdown</t>
+  </si>
+  <si>
+    <t>//html/body/div[3]/div/aside/ul/li[3]</t>
+  </si>
+  <si>
+    <t>Main_Menu_Orders_Dropdown_Orders_Page</t>
+  </si>
+  <si>
+    <t>//*[@id="layout-menu"]/ul/li[3]/a/div</t>
+  </si>
+  <si>
+    <t>Main_Menu_Orders_Dropdown_Orders_Page_Select_Orders</t>
+  </si>
+  <si>
+    <t>//html/body/div[3]/div/aside/ul/li[3]/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>Orders_Page_Create_Orders</t>
+  </si>
+  <si>
+    <t>//button[@title='Create Single Order' and contains(@class, 'btn-primary')]</t>
+  </si>
+  <si>
+    <t>Orders_Details_Page_Back_BT</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Back')]</t>
+  </si>
+  <si>
+    <t>Orders_Page_More_Filers_BT</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'More Filters')]</t>
+  </si>
+  <si>
+    <t>Orders_Page_Inside_Filters_Order_ID</t>
+  </si>
+  <si>
+    <t>//input[@id='order-id']</t>
+  </si>
+  <si>
+    <t>BulkAction_Activity_Log_Success_BT</t>
+  </si>
+  <si>
+    <t>//tr/td/div[@class='flex space-x-2 pl-3']/span[@class='cursor-pointer ']</t>
   </si>
 </sst>
 </file>
@@ -161,7 +218,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +229,16 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -643,158 +710,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,7 +1241,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1178,7 +1252,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1186,7 +1260,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -1195,7 +1269,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1206,7 +1280,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1233,7 +1307,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1246,64 +1320,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" ht="14.5" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,16 +1388,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="56.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="57.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="78.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1362,44 +1436,44 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="14.5" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="14.5" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="14.5" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" ht="14.5" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="14.5" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
@@ -1407,7 +1481,7 @@
       </c>
     </row>
     <row r="11" ht="14.5" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -1415,11 +1489,91 @@
       </c>
     </row>
     <row r="12" ht="14.5" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="14.5" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
